--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Rspo1-Lgr6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Rspo1-Lgr6.xlsx
@@ -76,10 +76,10 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Rspo1</t>
@@ -534,19 +534,19 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.122566</v>
+        <v>0.724909</v>
       </c>
       <c r="H2">
-        <v>0.367698</v>
+        <v>1.449818</v>
       </c>
       <c r="I2">
-        <v>0.6601021126254865</v>
+        <v>0.5784209917375155</v>
       </c>
       <c r="J2">
-        <v>0.6601021126254866</v>
+        <v>0.477722171991027</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,22 +561,22 @@
         <v>0.325777</v>
       </c>
       <c r="O2">
-        <v>0.1969429372262032</v>
+        <v>0.1797880856321904</v>
       </c>
       <c r="P2">
-        <v>0.2689322520249767</v>
+        <v>0.2474388498825759</v>
       </c>
       <c r="Q2">
-        <v>0.01330972792733333</v>
+        <v>0.07871955976433334</v>
       </c>
       <c r="R2">
-        <v>0.119787551346</v>
+        <v>0.472317358586</v>
       </c>
       <c r="S2">
-        <v>0.1300024489296853</v>
+        <v>0.1039932027939609</v>
       </c>
       <c r="T2">
-        <v>0.1775227477148169</v>
+        <v>0.1182070248008658</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,19 +596,19 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.122566</v>
+        <v>0.724909</v>
       </c>
       <c r="H3">
-        <v>0.367698</v>
+        <v>1.449818</v>
       </c>
       <c r="I3">
-        <v>0.6601021126254865</v>
+        <v>0.5784209917375155</v>
       </c>
       <c r="J3">
-        <v>0.6601021126254866</v>
+        <v>0.477722171991027</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.4427975</v>
+        <v>0.4954095</v>
       </c>
       <c r="N3">
-        <v>0.885595</v>
+        <v>0.990819</v>
       </c>
       <c r="O3">
-        <v>0.8030570627737967</v>
+        <v>0.8202119143678096</v>
       </c>
       <c r="P3">
-        <v>0.7310677479750235</v>
+        <v>0.752561150117424</v>
       </c>
       <c r="Q3">
-        <v>0.05427191838500001</v>
+        <v>0.3591268052355</v>
       </c>
       <c r="R3">
-        <v>0.32563151031</v>
+        <v>1.436507220942</v>
       </c>
       <c r="S3">
-        <v>0.5300996636958011</v>
+        <v>0.4744277889435546</v>
       </c>
       <c r="T3">
-        <v>0.4825793649106698</v>
+        <v>0.3595151471901611</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.06311133333333334</v>
+        <v>0.528346</v>
       </c>
       <c r="H4">
-        <v>0.189334</v>
+        <v>1.585038</v>
       </c>
       <c r="I4">
-        <v>0.3398978873745135</v>
+        <v>0.4215790082624845</v>
       </c>
       <c r="J4">
-        <v>0.3398978873745135</v>
+        <v>0.522277828008973</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,22 +685,22 @@
         <v>0.325777</v>
       </c>
       <c r="O4">
-        <v>0.1969429372262032</v>
+        <v>0.1797880856321904</v>
       </c>
       <c r="P4">
-        <v>0.2689322520249767</v>
+        <v>0.2474388498825759</v>
       </c>
       <c r="Q4">
-        <v>0.006853406946444445</v>
+        <v>0.05737432494733333</v>
       </c>
       <c r="R4">
-        <v>0.06168066251799999</v>
+        <v>0.5163689245259999</v>
       </c>
       <c r="S4">
-        <v>0.0669404882965179</v>
+        <v>0.07579488283822945</v>
       </c>
       <c r="T4">
-        <v>0.09140950431015982</v>
+        <v>0.1292318250817101</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.06311133333333334</v>
+        <v>0.528346</v>
       </c>
       <c r="H5">
-        <v>0.189334</v>
+        <v>1.585038</v>
       </c>
       <c r="I5">
-        <v>0.3398978873745135</v>
+        <v>0.4215790082624845</v>
       </c>
       <c r="J5">
-        <v>0.3398978873745135</v>
+        <v>0.522277828008973</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.4427975</v>
+        <v>0.4954095</v>
       </c>
       <c r="N5">
-        <v>0.885595</v>
+        <v>0.990819</v>
       </c>
       <c r="O5">
-        <v>0.8030570627737967</v>
+        <v>0.8202119143678096</v>
       </c>
       <c r="P5">
-        <v>0.7310677479750235</v>
+        <v>0.752561150117424</v>
       </c>
       <c r="Q5">
-        <v>0.02794554062166667</v>
+        <v>0.261747627687</v>
       </c>
       <c r="R5">
-        <v>0.16767324373</v>
+        <v>1.570485766122</v>
       </c>
       <c r="S5">
-        <v>0.2729573990779955</v>
+        <v>0.345784125424255</v>
       </c>
       <c r="T5">
-        <v>0.2484883830643538</v>
+        <v>0.3930460029272629</v>
       </c>
     </row>
   </sheetData>
